--- a/data/rhamnolipids/rhamnMat.xlsx
+++ b/data/rhamnolipids/rhamnMat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaoc/Documents/Source_code_for_Pseudomonas_Metabolomics_Paper/data/rhamnolipids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18CABEA-A701-2B4A-9D89-B4FE8B876C85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA62F17-0D19-0444-8E7C-00A2C1D7137B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20300" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rhamnMat_corrected" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,10 +1250,10 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/rhamnolipids/rhamnMat.xlsx
+++ b/data/rhamnolipids/rhamnMat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaoc/Documents/Source_code_for_Pseudomonas_Metabolomics_Paper/data/rhamnolipids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA62F17-0D19-0444-8E7C-00A2C1D7137B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8FF2C-16A4-E242-B082-16E1C284F56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>rhamn3cats</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>strain</t>
+  </si>
+  <si>
+    <t>M6075</t>
   </si>
 </sst>
 </file>
@@ -962,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,29 +1118,29 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1170,29 +1173,29 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1214,10 +1217,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1236,10 +1239,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1247,54 +1250,54 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1302,7 +1305,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1313,17 +1316,28 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/rhamnolipids/rhamnMat.xlsx
+++ b/data/rhamnolipids/rhamnMat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaoc/Documents/Source_code_for_Pseudomonas_Metabolomics_Paper/data/rhamnolipids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8FF2C-16A4-E242-B082-16E1C284F56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D355EF-8E08-E540-A23E-3EEB7F5CF82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>rhamn3cats</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>strain</t>
-  </si>
-  <si>
-    <t>M6075</t>
   </si>
 </sst>
 </file>
@@ -965,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,29 +1115,29 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1151,7 +1148,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1162,7 +1159,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1173,29 +1170,29 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1217,10 +1214,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1228,7 +1225,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1239,10 +1236,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1250,54 +1247,54 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1305,7 +1302,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1316,7 +1313,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1325,19 +1322,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
